--- a/Test protocol/Sprint_3/System Test protocol_Braille DP2_Sprint 3.xlsx
+++ b/Test protocol/Sprint_3/System Test protocol_Braille DP2_Sprint 3.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="126">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -567,12 +567,121 @@
 de: (formatter:dotify)(translator:sbs)(grade:0|1|2)
 </t>
   </si>
+  <si>
+    <t>It looks otherwise good but in my brf file there is always two page breaks when there should be one. So the double sided becomes always one sided. The printed lines alternate though.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The characters in the Finnish Braille table are correct but we need a way to handle all other characters that might exist in the source file. We might need different handling to these characters in different books. Like à might be  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  or  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>~a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  or  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  depending on the context.  In this book I wouldn't want to have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>~o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Nesb&amp;#xf8; but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="TRC-Braille (med .)"/>
+        <family val="2"/>
+      </rPr>
+      <t>ö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. And we want never the hexadecimal codes to be in the Braille, like &amp;#xbb;. is in this case. </t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +748,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="TRC-Braille (med .)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1144,104 +1259,104 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="24" thickBot="1">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickTop="1">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="18" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickTop="1">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="34"/>
     </row>
-    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" ht="18" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickTop="1">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="18" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="144.6" thickTop="1">
       <c r="A22" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="31"/>
     </row>
   </sheetData>
@@ -1264,7 +1379,7 @@
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
@@ -1273,7 +1388,7 @@
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1282,13 +1397,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1433,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1327,21 +1442,21 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1465,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1359,7 +1474,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1483,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1492,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1388,14 +1503,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1404,25 +1519,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="30" customFormat="1">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1546,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1555,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1564,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1573,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="72">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1478,32 +1593,32 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="30" customFormat="1">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1627,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1636,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1645,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1654,7 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="288" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="288">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="7" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1559,14 +1674,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1707,7 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
@@ -1601,7 +1716,7 @@
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1610,13 +1725,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1746,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1659,21 +1774,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1797,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1806,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1815,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1824,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1739,7 +1854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -1747,7 +1862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -1755,7 +1870,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -1763,7 +1878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -1771,7 +1886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1780,25 +1895,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1922,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1931,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1825,7 +1940,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +1949,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1856,35 +1971,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="30" customFormat="1">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +2008,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +2017,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="7" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +2026,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="7" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -1920,7 +2035,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -1931,7 +2046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="7" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +2055,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="7" customFormat="1">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +2063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="7" customFormat="1">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -1956,7 +2071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="7" customFormat="1">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -1964,32 +2079,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="7" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="7" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="30" customFormat="1">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2113,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="7" customFormat="1">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2122,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="7" customFormat="1">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2131,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="7" customFormat="1">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2025,7 +2140,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="7" customFormat="1">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2162,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="7" customFormat="1">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2055,7 +2170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="7" customFormat="1">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2063,7 +2178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="7" customFormat="1">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2071,7 +2186,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="7" customFormat="1">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2079,7 +2194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="7" customFormat="1">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2087,32 +2202,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="7" customFormat="1">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="7" customFormat="1">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="30" customFormat="1">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2236,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2245,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="7" customFormat="1">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -2139,7 +2254,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="7" customFormat="1">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -2148,7 +2263,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="7" customFormat="1">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -2178,32 +2293,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="7" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="7" customFormat="1">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="30" customFormat="1">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2327,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +2336,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="7" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -2230,7 +2345,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="7" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -2239,7 +2354,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="7" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="7" customFormat="1">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -2270,32 +2385,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="7" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="7" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="30" customFormat="1">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2419,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2428,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2437,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -2331,7 +2446,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2458,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="7" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" s="7" customFormat="1">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -2363,7 +2478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -2372,61 +2487,61 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="7" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="30" customFormat="1">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.399999999999999">
       <c r="B95" s="52"/>
       <c r="C95" s="53"/>
     </row>
-    <row r="96" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="57" customFormat="1">
       <c r="A96" s="54"/>
       <c r="B96" s="55"/>
       <c r="C96" s="56"/>
     </row>
-    <row r="97" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="57" customFormat="1">
       <c r="A97" s="54"/>
       <c r="B97" s="55"/>
       <c r="C97" s="58"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="7" customFormat="1">
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="7" customFormat="1">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="35"/>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="6"/>
       <c r="B101" s="28"/>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="7" customFormat="1">
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
     </row>
@@ -2464,11 +2579,11 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
@@ -2477,7 +2592,7 @@
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2486,13 +2601,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2507,7 +2622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -2535,21 +2650,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2673,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2567,7 +2682,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2691,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -2585,7 +2700,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2711,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -2615,7 +2730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -2623,7 +2738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -2631,7 +2746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -2639,7 +2754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -2647,34 +2762,38 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2802,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2811,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2701,7 +2820,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2710,7 +2829,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -2721,7 +2840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2732,35 +2851,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="30" customFormat="1">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2888,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2897,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="7" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2787,7 +2906,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="7" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2915,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="7" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2935,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="7" customFormat="1">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -2824,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="7" customFormat="1">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -2832,7 +2951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="7" customFormat="1">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2840,32 +2959,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="7" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="7" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="30" customFormat="1">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2874,7 +2993,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="7" customFormat="1">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2883,7 +3002,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="7" customFormat="1">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2892,7 +3011,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="7" customFormat="1">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +3020,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +3031,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="7" customFormat="1">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +3042,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="7" customFormat="1">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2931,7 +3050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="7" customFormat="1">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2939,7 +3058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="7" customFormat="1">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2947,7 +3066,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="7" customFormat="1">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2955,7 +3074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="7" customFormat="1">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2963,32 +3082,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="7" customFormat="1">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="7" customFormat="1">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="30" customFormat="1">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +3116,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -3006,7 +3125,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="7" customFormat="1">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -3015,7 +3134,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="7" customFormat="1">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -3024,7 +3143,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -3035,7 +3154,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="7" customFormat="1">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="7" customFormat="1">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -3054,32 +3173,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="7" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="7" customFormat="1">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="30" customFormat="1">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3207,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -3097,7 +3216,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="7" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3225,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="7" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3234,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +3245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="7" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" s="7" customFormat="1">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -3146,32 +3265,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" s="7" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" s="7" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" s="30" customFormat="1">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3299,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3308,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="7" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -3198,7 +3317,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="7" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -3207,7 +3326,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -3219,7 +3338,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="7" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" s="7" customFormat="1">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -3239,7 +3358,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="7" customFormat="1">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -3248,32 +3367,32 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="7" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="7" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="30" customFormat="1">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1">
       <c r="A96" s="6" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3401,7 @@
       </c>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" s="7" customFormat="1" ht="72">
       <c r="A97" s="6" t="s">
         <v>1</v>
       </c>
@@ -3291,7 +3410,7 @@
       </c>
       <c r="C97" s="43"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" s="7" customFormat="1">
       <c r="A98" s="7" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3419,7 @@
       </c>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" s="7" customFormat="1">
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3428,7 @@
       </c>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" s="7" customFormat="1" ht="302.39999999999998">
       <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
@@ -3320,7 +3439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" s="7" customFormat="1">
       <c r="A101" s="6" t="s">
         <v>5</v>
       </c>
@@ -3329,75 +3448,79 @@
       </c>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" s="7" customFormat="1">
       <c r="A102" s="6"/>
       <c r="B102" t="s">
         <v>77</v>
       </c>
       <c r="C102" s="34"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" s="7" customFormat="1">
       <c r="A103" s="6"/>
       <c r="B103" t="s">
         <v>78</v>
       </c>
       <c r="C103" s="34"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" s="7" customFormat="1">
       <c r="A104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" s="7" customFormat="1">
       <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" s="49" customFormat="1">
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.399999999999999">
       <c r="B107" s="52"/>
       <c r="C107" s="53"/>
     </row>
-    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" s="57" customFormat="1">
       <c r="A108" s="54"/>
       <c r="B108" s="55"/>
       <c r="C108" s="56"/>
     </row>
-    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" s="57" customFormat="1">
       <c r="A109" s="54"/>
       <c r="B109" s="55"/>
       <c r="C109" s="58"/>
     </row>
-    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" s="7" customFormat="1">
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" s="7" customFormat="1">
       <c r="B111" s="11"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" s="7" customFormat="1">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="35"/>
     </row>
-    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" s="7" customFormat="1">
       <c r="A113" s="6"/>
       <c r="B113" s="28"/>
       <c r="C113" s="34"/>
     </row>
-    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" s="7" customFormat="1">
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" s="7" customFormat="1">
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
     </row>
